--- a/data/trans_dic/P10_2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P10_2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene acceso a internet con Wifi</t>
+          <t>Población que tiene acceso a internet con Wifi (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>63,12%</t>
+          <t>70,06%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>68,35%</t>
+          <t>72,77%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>52,78%</t>
+          <t>66,08%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>58,54%</t>
+          <t>64,63%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>57,26%</t>
+          <t>67,93%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>62,84%</t>
+          <t>68,26%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>57,16; 70,13</t>
+          <t>59,63; 80,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>60,83; 76,37</t>
+          <t>64,87; 81,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>47,42; 58,72</t>
+          <t>56,19; 75,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>51,98; 64,36</t>
+          <t>56,67; 72,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>53,26; 61,62</t>
+          <t>61,76; 74,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>57,86; 67,76</t>
+          <t>61,52; 73,88</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>85,69%</t>
+          <t>86,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88,39%</t>
+          <t>86,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>85,6%</t>
+          <t>87,41%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>87,07%</t>
+          <t>86,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>85,65%</t>
+          <t>86,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>87,73%</t>
+          <t>86,55%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>81,72; 88,84</t>
+          <t>77,9; 91,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>83,22; 91,51</t>
+          <t>77,86; 90,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,63; 88,17</t>
+          <t>81,94; 91,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>83,43; 89,8</t>
+          <t>81,74; 90,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>82,81; 87,51</t>
+          <t>81,92; 89,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>85,03; 89,77</t>
+          <t>82,3; 89,65</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>96,1%</t>
+          <t>95,22%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>92,78%</t>
+          <t>93,22%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>96,06%</t>
+          <t>96,87%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>96,71%</t>
+          <t>96,97%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,08%</t>
+          <t>96,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,73%</t>
+          <t>95,17%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>93,16; 97,73</t>
+          <t>88,76; 98,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,73; 96,24</t>
+          <t>86,24; 96,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>94,02; 97,57</t>
+          <t>94,31; 98,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>94,38; 98,07</t>
+          <t>94,62; 98,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>94,42; 97,35</t>
+          <t>93,27; 97,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>91,63; 96,53</t>
+          <t>91,0; 97,25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>84,63%</t>
+          <t>83,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>86,02%</t>
+          <t>84,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>80,9%</t>
+          <t>76,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>83,41%</t>
+          <t>79,26%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>82,72%</t>
+          <t>80,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>84,68%</t>
+          <t>81,75%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>81,93; 86,53</t>
+          <t>80,36; 85,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,02; 88,49</t>
+          <t>79,33; 87,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78,97; 82,98</t>
+          <t>73,42; 79,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>80,73; 85,59</t>
+          <t>75,31; 83,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>81,28; 84,28</t>
+          <t>77,84; 81,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>82,82; 86,41</t>
+          <t>79,04; 84,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>84,62%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>85,46%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>81,04%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>83,46%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>82,79%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>84,44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>81,99; 86,6</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>82,54; 87,89</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>78,72; 82,96</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>81,14; 85,57</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>81,19; 84,36</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>82,64; 86,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene acceso a internet con Wifi (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>158679</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>246861</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>172924</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>272531</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>331603</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>519392</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>135049; 181417</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>220041; 277491</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>147047; 197249</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>238983; 307443</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>301494; 365734</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>468101; 562152</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>282.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>330.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>510.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>612.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>562336</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>803498</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>625066</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>869211</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1187402</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1672708</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>507019; 593927</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>726129; 847421</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>585968; 650927</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>817425; 902202</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1118958; 1228561</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1590581; 1732612</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>294.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>422.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>532.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>433888</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>667094</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>515038</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>745904</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>948927</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1412998</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>404461; 446552</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>617158; 693185</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>501455; 524058</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>727780; 757468</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>920943; 966181</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1351106; 1443945</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>673.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>397.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>716.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>419.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1389.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>816.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1762171</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1226399</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1602915</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1112305</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3365086</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2338704</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1699172; 1817099</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1156122; 1279156</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1534379; 1657769</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1056908; 1166526</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3272699; 3442883</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2261023; 2412286</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1152.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1312.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1146.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2464.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2146.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2917075</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2943851</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2915944</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2999951</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5833019</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5943802</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2826594; 2985433</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2843095; 3027679</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2832395; 2984981</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2916451; 3075538</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5720649; 5943399</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5817222; 6058795</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>